--- a/python/17.10.2021_data.xlsx
+++ b/python/17.10.2021_data.xlsx
@@ -1,37 +1,165 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sandbox\python\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77400006-920B-4A05-8583-5A34F5E9106D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$A$1:$G$33</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Number of vacancies</t>
+  </si>
+  <si>
+    <t>Floor Salary</t>
+  </si>
+  <si>
+    <t>Average Salary</t>
+  </si>
+  <si>
+    <t>Ceiling Salary</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>1С</t>
+  </si>
+  <si>
+    <t>Assembler</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>Clojure</t>
+  </si>
+  <si>
+    <t>Cuda</t>
+  </si>
+  <si>
+    <t>Delphi</t>
+  </si>
+  <si>
+    <t>Erlang</t>
+  </si>
+  <si>
+    <t>F#</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>Groovy</t>
+  </si>
+  <si>
+    <t>Haskell</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>JavaScript</t>
+  </si>
+  <si>
+    <t>Kotlin</t>
+  </si>
+  <si>
+    <t>Lisp</t>
+  </si>
+  <si>
+    <t>Lua</t>
+  </si>
+  <si>
+    <t>Matlab</t>
+  </si>
+  <si>
+    <t>Objective-C</t>
+  </si>
+  <si>
+    <t>OpenGL</t>
+  </si>
+  <si>
+    <t>Perl</t>
+  </si>
+  <si>
+    <t>PHP</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Ruby</t>
+  </si>
+  <si>
+    <t>Rust</t>
+  </si>
+  <si>
+    <t>Scala</t>
+  </si>
+  <si>
+    <t>Solidity</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>Swift</t>
+  </si>
+  <si>
+    <t>TypeScript</t>
+  </si>
+  <si>
+    <t>Verilog</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +174,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,127 +498,786 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Technology</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Number of vacancies</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Floor Salary</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Average Salary</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Ceiling Salary</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1С</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
         <v>2000</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
+        <v>180000</v>
+      </c>
+      <c r="E2">
+        <v>217500</v>
+      </c>
+      <c r="F2">
+        <v>255000</v>
+      </c>
+      <c r="G2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>2000</v>
+      </c>
+      <c r="D3">
+        <v>150000</v>
+      </c>
+      <c r="E3">
+        <v>175000</v>
+      </c>
+      <c r="F3">
+        <v>200000</v>
+      </c>
+      <c r="G3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>2000</v>
+      </c>
+      <c r="D4">
+        <v>150000</v>
+      </c>
+      <c r="E4">
+        <v>175000</v>
+      </c>
+      <c r="F4">
+        <v>200000</v>
+      </c>
+      <c r="G4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>2000</v>
+      </c>
+      <c r="D5">
+        <v>150000</v>
+      </c>
+      <c r="E5">
+        <v>175000</v>
+      </c>
+      <c r="F5">
+        <v>200000</v>
+      </c>
+      <c r="G5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>2000</v>
+      </c>
+      <c r="D6">
+        <v>150000</v>
+      </c>
+      <c r="E6">
+        <v>175000</v>
+      </c>
+      <c r="F6">
+        <v>200000</v>
+      </c>
+      <c r="G6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7">
+        <v>1644</v>
+      </c>
+      <c r="D7">
+        <v>180000</v>
+      </c>
+      <c r="E7">
+        <v>215000</v>
+      </c>
+      <c r="F7">
+        <v>250000</v>
+      </c>
+      <c r="G7">
+        <v>295.92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>2000</v>
+      </c>
+      <c r="D8">
+        <v>130000</v>
+      </c>
+      <c r="E8">
+        <v>165000</v>
+      </c>
+      <c r="F8">
+        <v>200000</v>
+      </c>
+      <c r="G8">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9">
+        <v>2000</v>
+      </c>
+      <c r="D9">
+        <v>130000</v>
+      </c>
+      <c r="E9">
+        <v>155000</v>
+      </c>
+      <c r="F9">
+        <v>180000</v>
+      </c>
+      <c r="G9">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>1245</v>
+      </c>
+      <c r="D10">
+        <v>200000</v>
+      </c>
+      <c r="E10">
+        <v>245000</v>
+      </c>
+      <c r="F10">
+        <v>290000</v>
+      </c>
+      <c r="G10">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11">
+        <v>1543</v>
+      </c>
+      <c r="D11">
+        <v>150000</v>
+      </c>
+      <c r="E11">
+        <v>199299</v>
+      </c>
+      <c r="F11">
+        <v>248599</v>
+      </c>
+      <c r="G11">
+        <v>231.45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>1548</v>
+      </c>
+      <c r="D12">
+        <v>140000</v>
+      </c>
+      <c r="E12">
+        <v>170000</v>
+      </c>
+      <c r="F12">
+        <v>200000</v>
+      </c>
+      <c r="G12">
+        <v>216.72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>2000</v>
+      </c>
+      <c r="D13">
+        <v>80000</v>
+      </c>
+      <c r="E13">
+        <v>105000</v>
+      </c>
+      <c r="F13">
+        <v>130000</v>
+      </c>
+      <c r="G13">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14">
+        <v>787</v>
+      </c>
+      <c r="D14">
+        <v>180000</v>
+      </c>
+      <c r="E14">
+        <v>230000</v>
+      </c>
+      <c r="F14">
+        <v>280000</v>
+      </c>
+      <c r="G14">
+        <v>141.66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>2000</v>
+      </c>
+      <c r="D15">
         <v>70000</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E15">
         <v>85000</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F15">
         <v>100000</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G15">
         <v>140</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <v>451</v>
+      </c>
+      <c r="D16">
+        <v>202987</v>
+      </c>
+      <c r="E16">
+        <v>226493</v>
+      </c>
+      <c r="F16">
+        <v>250000</v>
+      </c>
+      <c r="G16">
+        <v>91.547136999999992</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>386</v>
+      </c>
+      <c r="D17">
+        <v>162390</v>
+      </c>
+      <c r="E17">
+        <v>206195</v>
+      </c>
+      <c r="F17">
+        <v>250000</v>
+      </c>
+      <c r="G17">
+        <v>62.682540000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18">
+        <v>264</v>
+      </c>
+      <c r="D18">
+        <v>200000</v>
+      </c>
+      <c r="E18">
+        <v>250000</v>
+      </c>
+      <c r="F18">
+        <v>300000</v>
+      </c>
+      <c r="G18">
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>11</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>238</v>
+      </c>
+      <c r="D19">
+        <v>190000</v>
+      </c>
+      <c r="E19">
+        <v>225000</v>
+      </c>
+      <c r="F19">
+        <v>260000</v>
+      </c>
+      <c r="G19">
+        <v>45.22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>21</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20">
+        <v>272</v>
+      </c>
+      <c r="D20">
+        <v>100000</v>
+      </c>
+      <c r="E20">
+        <v>125000</v>
+      </c>
+      <c r="F20">
+        <v>150000</v>
+      </c>
+      <c r="G20">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>254</v>
+      </c>
+      <c r="D21">
+        <v>90000</v>
+      </c>
+      <c r="E21">
+        <v>105000</v>
+      </c>
+      <c r="F21">
+        <v>120000</v>
+      </c>
+      <c r="G21">
+        <v>22.86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>72</v>
+      </c>
+      <c r="D22">
+        <v>300000</v>
+      </c>
+      <c r="E22">
+        <v>325000</v>
+      </c>
+      <c r="F22">
+        <v>350000</v>
+      </c>
+      <c r="G22">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23">
+        <v>174</v>
+      </c>
+      <c r="D23">
+        <v>100000</v>
+      </c>
+      <c r="E23">
+        <v>110000</v>
+      </c>
+      <c r="F23">
+        <v>120000</v>
+      </c>
+      <c r="G23">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>107</v>
+      </c>
+      <c r="D24">
+        <v>160000</v>
+      </c>
+      <c r="E24">
+        <v>157500</v>
+      </c>
+      <c r="F24">
+        <v>155000</v>
+      </c>
+      <c r="G24">
+        <v>17.12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Erlang</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>131</v>
+      </c>
+      <c r="D25">
+        <v>120000</v>
+      </c>
+      <c r="E25">
+        <v>145000</v>
+      </c>
+      <c r="F25">
+        <v>170000</v>
+      </c>
+      <c r="G25">
+        <v>15.72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>68</v>
+      </c>
+      <c r="D26">
+        <v>171000</v>
+      </c>
+      <c r="E26">
+        <v>235500</v>
+      </c>
+      <c r="F26">
+        <v>300000</v>
+      </c>
+      <c r="G26">
+        <v>11.628</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27">
+        <v>25</v>
+      </c>
+      <c r="D27">
+        <v>250000</v>
+      </c>
+      <c r="E27">
+        <v>292500</v>
+      </c>
+      <c r="F27">
+        <v>335000</v>
+      </c>
+      <c r="G27">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>31</v>
+      </c>
+      <c r="B28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28">
+        <v>54</v>
+      </c>
+      <c r="D28">
+        <v>100000</v>
+      </c>
+      <c r="E28">
+        <v>125000</v>
+      </c>
+      <c r="F28">
+        <v>150000</v>
+      </c>
+      <c r="G28">
+        <v>5.3999999999999986</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>47</v>
+      </c>
+      <c r="D29">
+        <v>100000</v>
+      </c>
+      <c r="E29">
+        <v>150000</v>
+      </c>
+      <c r="F29">
+        <v>200000</v>
+      </c>
+      <c r="G29">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30">
+        <v>23</v>
+      </c>
+      <c r="D30">
         <v>130000</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E30">
         <v>220000</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F30">
         <v>310000</v>
       </c>
-      <c r="G3" t="n">
-        <v>3.12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Verilog</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>54</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="G30">
+        <v>2.99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>210000</v>
+      </c>
+      <c r="E31">
+        <v>230000</v>
+      </c>
+      <c r="F31">
+        <v>250000</v>
+      </c>
+      <c r="G31">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>205000</v>
+      </c>
+      <c r="E32">
+        <v>227500</v>
+      </c>
+      <c r="F32">
+        <v>250000</v>
+      </c>
+      <c r="G32">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>16</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33">
         <v>100000</v>
       </c>
-      <c r="E4" t="n">
-        <v>125000</v>
-      </c>
-      <c r="F4" t="n">
-        <v>150000</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5.399999999999999</v>
+      <c r="E33">
+        <v>105000</v>
+      </c>
+      <c r="F33">
+        <v>110000</v>
+      </c>
+      <c r="G33">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G33" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G33">
+      <sortCondition descending="1" ref="G1:G33"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>